--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.67599</v>
+        <v>13.36183833333333</v>
       </c>
       <c r="H2">
-        <v>41.02797</v>
+        <v>40.085515</v>
       </c>
       <c r="I2">
-        <v>0.9202768337756827</v>
+        <v>0.8778232942402776</v>
       </c>
       <c r="J2">
-        <v>0.9307093336004689</v>
+        <v>0.8933425341492148</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>41.71215133333333</v>
+        <v>14.37161333333333</v>
       </c>
       <c r="N2">
-        <v>125.136454</v>
+        <v>43.11484</v>
       </c>
       <c r="O2">
-        <v>0.2049377865502938</v>
+        <v>0.4561705932627708</v>
       </c>
       <c r="P2">
-        <v>0.2703868219970402</v>
+        <v>0.5019766122855294</v>
       </c>
       <c r="Q2">
-        <v>570.4549645131533</v>
+        <v>192.0311739491778</v>
       </c>
       <c r="R2">
-        <v>5134.094680618379</v>
+        <v>1728.2805655426</v>
       </c>
       <c r="S2">
-        <v>0.1885994973275011</v>
+        <v>0.4004371729134672</v>
       </c>
       <c r="T2">
-        <v>0.2516515389152139</v>
+        <v>0.4484370589027927</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.67599</v>
+        <v>13.36183833333333</v>
       </c>
       <c r="H3">
-        <v>41.02797</v>
+        <v>40.085515</v>
       </c>
       <c r="I3">
-        <v>0.9202768337756827</v>
+        <v>0.8778232942402776</v>
       </c>
       <c r="J3">
-        <v>0.9307093336004689</v>
+        <v>0.8933425341492148</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -626,22 +626,22 @@
         <v>1.055898</v>
       </c>
       <c r="O3">
-        <v>0.001729259476562138</v>
+        <v>0.01117178254830525</v>
       </c>
       <c r="P3">
-        <v>0.002281516659989669</v>
+        <v>0.01229358849433434</v>
       </c>
       <c r="Q3">
-        <v>4.81348349634</v>
+        <v>4.70291279083</v>
       </c>
       <c r="R3">
-        <v>43.32135146706</v>
+        <v>42.32621511747</v>
       </c>
       <c r="S3">
-        <v>0.001591397435867199</v>
+        <v>0.009806850959089357</v>
       </c>
       <c r="T3">
-        <v>0.002123428850217352</v>
+        <v>0.01098238549931627</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.67599</v>
+        <v>13.36183833333333</v>
       </c>
       <c r="H4">
-        <v>41.02797</v>
+        <v>40.085515</v>
       </c>
       <c r="I4">
-        <v>0.9202768337756827</v>
+        <v>0.8778232942402776</v>
       </c>
       <c r="J4">
-        <v>0.9307093336004689</v>
+        <v>0.8933425341492148</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>4.108626</v>
+        <v>2.798424666666667</v>
       </c>
       <c r="N4">
-        <v>12.325878</v>
+        <v>8.395274000000001</v>
       </c>
       <c r="O4">
-        <v>0.02018626925938754</v>
+        <v>0.08882503382091908</v>
       </c>
       <c r="P4">
-        <v>0.02663296644751684</v>
+        <v>0.09774433122629669</v>
       </c>
       <c r="Q4">
-        <v>56.18952808973999</v>
+        <v>37.39209798401222</v>
       </c>
       <c r="R4">
-        <v>505.70575280766</v>
+        <v>336.52888185611</v>
       </c>
       <c r="S4">
-        <v>0.01857695595977256</v>
+        <v>0.07797268379968327</v>
       </c>
       <c r="T4">
-        <v>0.02478755045417205</v>
+        <v>0.08731916855642012</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.67599</v>
+        <v>13.36183833333333</v>
       </c>
       <c r="H5">
-        <v>41.02797</v>
+        <v>40.085515</v>
       </c>
       <c r="I5">
-        <v>0.9202768337756827</v>
+        <v>0.8778232942402776</v>
       </c>
       <c r="J5">
-        <v>0.9307093336004689</v>
+        <v>0.8933425341492148</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>147.801735</v>
+        <v>8.624592</v>
       </c>
       <c r="N5">
-        <v>295.60347</v>
+        <v>17.249184</v>
       </c>
       <c r="O5">
-        <v>0.726171138408471</v>
+        <v>0.2737539034788959</v>
       </c>
       <c r="P5">
-        <v>0.6387210142984987</v>
+        <v>0.2008284606648142</v>
       </c>
       <c r="Q5">
-        <v>2021.33504984265</v>
+        <v>115.24040399496</v>
       </c>
       <c r="R5">
-        <v>12128.0102990559</v>
+        <v>691.4424239697601</v>
       </c>
       <c r="S5">
-        <v>0.6682784760338307</v>
+        <v>0.2403075533629794</v>
       </c>
       <c r="T5">
-        <v>0.5944636095743713</v>
+        <v>0.179408605979591</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.67599</v>
+        <v>13.36183833333333</v>
       </c>
       <c r="H6">
-        <v>41.02797</v>
+        <v>40.085515</v>
       </c>
       <c r="I6">
-        <v>0.9202768337756827</v>
+        <v>0.8778232942402776</v>
       </c>
       <c r="J6">
-        <v>0.9307093336004689</v>
+        <v>0.8933425341492148</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.561199666666667</v>
+        <v>5.358313666666667</v>
       </c>
       <c r="N6">
-        <v>28.683599</v>
+        <v>16.074941</v>
       </c>
       <c r="O6">
-        <v>0.04697554630528544</v>
+        <v>0.1700786868891091</v>
       </c>
       <c r="P6">
-        <v>0.06197768059695444</v>
+        <v>0.1871570073290255</v>
       </c>
       <c r="Q6">
-        <v>130.7588710293367</v>
+        <v>71.59692095329055</v>
       </c>
       <c r="R6">
-        <v>1176.82983926403</v>
+        <v>644.372288579615</v>
       </c>
       <c r="S6">
-        <v>0.04323050701871105</v>
+        <v>0.1492990332050585</v>
       </c>
       <c r="T6">
-        <v>0.05768320580649418</v>
+        <v>0.1671953152110948</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.586049</v>
       </c>
       <c r="I7">
-        <v>0.03557583160787843</v>
+        <v>0.03473251517428423</v>
       </c>
       <c r="J7">
-        <v>0.03597912857613209</v>
+        <v>0.03534655929816115</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>41.71215133333333</v>
+        <v>14.37161333333333</v>
       </c>
       <c r="N7">
-        <v>125.136454</v>
+        <v>43.11484</v>
       </c>
       <c r="O7">
-        <v>0.2049377865502938</v>
+        <v>0.4561705932627708</v>
       </c>
       <c r="P7">
-        <v>0.2703868219970402</v>
+        <v>0.5019766122855294</v>
       </c>
       <c r="Q7">
-        <v>22.05250530336066</v>
+        <v>7.598027651906667</v>
       </c>
       <c r="R7">
-        <v>198.472547730246</v>
+        <v>68.38224886716</v>
       </c>
       <c r="S7">
-        <v>0.007290832184404585</v>
+        <v>0.01584395205256143</v>
       </c>
       <c r="T7">
-        <v>0.009728282233923252</v>
+        <v>0.01774314609244051</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.586049</v>
       </c>
       <c r="I8">
-        <v>0.03557583160787843</v>
+        <v>0.03473251517428423</v>
       </c>
       <c r="J8">
-        <v>0.03597912857613209</v>
+        <v>0.03534655929816115</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -936,10 +936,10 @@
         <v>1.055898</v>
       </c>
       <c r="O8">
-        <v>0.001729259476562138</v>
+        <v>0.01117178254830525</v>
       </c>
       <c r="P8">
-        <v>0.002281516659989669</v>
+        <v>0.01229358849433434</v>
       </c>
       <c r="Q8">
         <v>0.186078440778</v>
@@ -948,10 +948,10 @@
         <v>1.674705967002</v>
       </c>
       <c r="S8">
-        <v>6.151984394450264E-05</v>
+        <v>0.0003880241068828158</v>
       </c>
       <c r="T8">
-        <v>8.208698125835574E-05</v>
+        <v>0.0004345360547021803</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.586049</v>
       </c>
       <c r="I9">
-        <v>0.03557583160787843</v>
+        <v>0.03473251517428423</v>
       </c>
       <c r="J9">
-        <v>0.03597912857613209</v>
+        <v>0.03534655929816115</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.108626</v>
+        <v>2.798424666666667</v>
       </c>
       <c r="N9">
-        <v>12.325878</v>
+        <v>8.395274000000001</v>
       </c>
       <c r="O9">
-        <v>0.02018626925938754</v>
+        <v>0.08882503382091908</v>
       </c>
       <c r="P9">
-        <v>0.02663296644751684</v>
+        <v>0.09774433122629669</v>
       </c>
       <c r="Q9">
-        <v>2.172160719558</v>
+        <v>1.479479548047334</v>
       </c>
       <c r="R9">
-        <v>19.549446476022</v>
+        <v>13.315315932426</v>
       </c>
       <c r="S9">
-        <v>0.0007181433159632638</v>
+        <v>0.003085116835041382</v>
       </c>
       <c r="T9">
-        <v>0.0009582309241790203</v>
+        <v>0.003454925799749401</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.586049</v>
       </c>
       <c r="I10">
-        <v>0.03557583160787843</v>
+        <v>0.03473251517428423</v>
       </c>
       <c r="J10">
-        <v>0.03597912857613209</v>
+        <v>0.03534655929816115</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>147.801735</v>
+        <v>8.624592</v>
       </c>
       <c r="N10">
-        <v>295.60347</v>
+        <v>17.249184</v>
       </c>
       <c r="O10">
-        <v>0.726171138408471</v>
+        <v>0.2737539034788959</v>
       </c>
       <c r="P10">
-        <v>0.6387210142984987</v>
+        <v>0.2008284606648142</v>
       </c>
       <c r="Q10">
-        <v>78.14026466500501</v>
+        <v>4.559675172336</v>
       </c>
       <c r="R10">
-        <v>468.8415879900301</v>
+        <v>27.358051034016</v>
       </c>
       <c r="S10">
-        <v>0.02583414213852115</v>
+        <v>0.009508161606600292</v>
       </c>
       <c r="T10">
-        <v>0.02298062549772319</v>
+        <v>0.007098595093647278</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.586049</v>
       </c>
       <c r="I11">
-        <v>0.03557583160787843</v>
+        <v>0.03473251517428423</v>
       </c>
       <c r="J11">
-        <v>0.03597912857613209</v>
+        <v>0.03534655929816115</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.561199666666667</v>
+        <v>5.358313666666667</v>
       </c>
       <c r="N11">
-        <v>28.683599</v>
+        <v>16.074941</v>
       </c>
       <c r="O11">
-        <v>0.04697554630528544</v>
+        <v>0.1700786868891091</v>
       </c>
       <c r="P11">
-        <v>0.06197768059695444</v>
+        <v>0.1871570073290255</v>
       </c>
       <c r="Q11">
-        <v>5.054843723372334</v>
+        <v>2.832849344234333</v>
       </c>
       <c r="R11">
-        <v>45.493593510351</v>
+        <v>25.495644098109</v>
       </c>
       <c r="S11">
-        <v>0.00167119412504493</v>
+        <v>0.005907260573198318</v>
       </c>
       <c r="T11">
-        <v>0.002229902939048271</v>
+        <v>0.006615356257621779</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1267363333333333</v>
+        <v>0.3796583333333333</v>
       </c>
       <c r="H12">
-        <v>0.380209</v>
+        <v>1.138975</v>
       </c>
       <c r="I12">
-        <v>0.008528268269013033</v>
+        <v>0.02494214647254301</v>
       </c>
       <c r="J12">
-        <v>0.008624946957378119</v>
+        <v>0.02538310441646071</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>41.71215133333333</v>
+        <v>14.37161333333333</v>
       </c>
       <c r="N12">
-        <v>125.136454</v>
+        <v>43.11484</v>
       </c>
       <c r="O12">
-        <v>0.2049377865502938</v>
+        <v>0.4561705932627708</v>
       </c>
       <c r="P12">
-        <v>0.2703868219970402</v>
+        <v>0.5019766122855294</v>
       </c>
       <c r="Q12">
-        <v>5.286445115431778</v>
+        <v>5.456302765444444</v>
       </c>
       <c r="R12">
-        <v>47.578006038886</v>
+        <v>49.10672488899999</v>
       </c>
       <c r="S12">
-        <v>0.001747764422158636</v>
+        <v>0.01137787375362687</v>
       </c>
       <c r="T12">
-        <v>0.002332071997698511</v>
+        <v>0.0127417247642648</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1267363333333333</v>
+        <v>0.3796583333333333</v>
       </c>
       <c r="H13">
-        <v>0.380209</v>
+        <v>1.138975</v>
       </c>
       <c r="I13">
-        <v>0.008528268269013033</v>
+        <v>0.02494214647254301</v>
       </c>
       <c r="J13">
-        <v>0.008624946957378119</v>
+        <v>0.02538310441646071</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1246,22 +1246,22 @@
         <v>1.055898</v>
       </c>
       <c r="O13">
-        <v>0.001729259476562138</v>
+        <v>0.01117178254830525</v>
       </c>
       <c r="P13">
-        <v>0.002281516659989669</v>
+        <v>0.01229358849433434</v>
       </c>
       <c r="Q13">
-        <v>0.044606880298</v>
+        <v>0.13362682495</v>
       </c>
       <c r="R13">
-        <v>0.401461922682</v>
+        <v>1.20264142455</v>
       </c>
       <c r="S13">
-        <v>1.474758872285497E-05</v>
+        <v>0.0002786482366792293</v>
       </c>
       <c r="T13">
-        <v>1.967796017478538E-05</v>
+        <v>0.0003120494404046885</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1267363333333333</v>
+        <v>0.3796583333333333</v>
       </c>
       <c r="H14">
-        <v>0.380209</v>
+        <v>1.138975</v>
       </c>
       <c r="I14">
-        <v>0.008528268269013033</v>
+        <v>0.02494214647254301</v>
       </c>
       <c r="J14">
-        <v>0.008624946957378119</v>
+        <v>0.02538310441646071</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.108626</v>
+        <v>2.798424666666667</v>
       </c>
       <c r="N14">
-        <v>12.325878</v>
+        <v>8.395274000000001</v>
       </c>
       <c r="O14">
-        <v>0.02018626925938754</v>
+        <v>0.08882503382091908</v>
       </c>
       <c r="P14">
-        <v>0.02663296644751684</v>
+        <v>0.09774433122629669</v>
       </c>
       <c r="Q14">
-        <v>0.5207121942780001</v>
+        <v>1.062445244905555</v>
       </c>
       <c r="R14">
-        <v>4.686409748502001</v>
+        <v>9.562007204149999</v>
       </c>
       <c r="S14">
-        <v>0.0001721539195945879</v>
+        <v>0.002215487003989951</v>
       </c>
       <c r="T14">
-        <v>0.0002297079229274639</v>
+        <v>0.00248105456563421</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1267363333333333</v>
+        <v>0.3796583333333333</v>
       </c>
       <c r="H15">
-        <v>0.380209</v>
+        <v>1.138975</v>
       </c>
       <c r="I15">
-        <v>0.008528268269013033</v>
+        <v>0.02494214647254301</v>
       </c>
       <c r="J15">
-        <v>0.008624946957378119</v>
+        <v>0.02538310441646071</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>147.801735</v>
+        <v>8.624592</v>
       </c>
       <c r="N15">
-        <v>295.60347</v>
+        <v>17.249184</v>
       </c>
       <c r="O15">
-        <v>0.726171138408471</v>
+        <v>0.2737539034788959</v>
       </c>
       <c r="P15">
-        <v>0.6387210142984987</v>
+        <v>0.2008284606648142</v>
       </c>
       <c r="Q15">
-        <v>18.731849954205</v>
+        <v>3.274398224399999</v>
       </c>
       <c r="R15">
-        <v>112.39109972523</v>
+        <v>19.6463893464</v>
       </c>
       <c r="S15">
-        <v>0.006192982277562035</v>
+        <v>0.006828009958001023</v>
       </c>
       <c r="T15">
-        <v>0.005508934868887302</v>
+        <v>0.00509764978685205</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1267363333333333</v>
+        <v>0.3796583333333333</v>
       </c>
       <c r="H16">
-        <v>0.380209</v>
+        <v>1.138975</v>
       </c>
       <c r="I16">
-        <v>0.008528268269013033</v>
+        <v>0.02494214647254301</v>
       </c>
       <c r="J16">
-        <v>0.008624946957378119</v>
+        <v>0.02538310441646071</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.561199666666667</v>
+        <v>5.358313666666667</v>
       </c>
       <c r="N16">
-        <v>28.683599</v>
+        <v>16.074941</v>
       </c>
       <c r="O16">
-        <v>0.04697554630528544</v>
+        <v>0.1700786868891091</v>
       </c>
       <c r="P16">
-        <v>0.06197768059695444</v>
+        <v>0.1871570073290255</v>
       </c>
       <c r="Q16">
-        <v>1.211751388021222</v>
+        <v>2.034328436163888</v>
       </c>
       <c r="R16">
-        <v>10.905762492191</v>
+        <v>18.308955925475</v>
       </c>
       <c r="S16">
-        <v>0.0004006200609749182</v>
+        <v>0.00424212752024594</v>
       </c>
       <c r="T16">
-        <v>0.0005345542076900551</v>
+        <v>0.004750625859304955</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.4997305</v>
+        <v>0.7932915</v>
       </c>
       <c r="H17">
-        <v>0.9994609999999999</v>
+        <v>1.586583</v>
       </c>
       <c r="I17">
-        <v>0.03362757667131512</v>
+        <v>0.05211631367261799</v>
       </c>
       <c r="J17">
-        <v>0.02267252514003638</v>
+        <v>0.03535845997882436</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>41.71215133333333</v>
+        <v>14.37161333333333</v>
       </c>
       <c r="N17">
-        <v>125.136454</v>
+        <v>43.11484</v>
       </c>
       <c r="O17">
-        <v>0.2049377865502938</v>
+        <v>0.4561705932627708</v>
       </c>
       <c r="P17">
-        <v>0.2703868219970402</v>
+        <v>0.5019766122855294</v>
       </c>
       <c r="Q17">
-        <v>20.84483424188233</v>
+        <v>11.40087869862</v>
       </c>
       <c r="R17">
-        <v>125.069005451294</v>
+        <v>68.40527219172</v>
       </c>
       <c r="S17">
-        <v>0.006891561130069617</v>
+        <v>0.0237739297267068</v>
       </c>
       <c r="T17">
-        <v>0.006130352019262436</v>
+        <v>0.01774911995580373</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.4997305</v>
+        <v>0.7932915</v>
       </c>
       <c r="H18">
-        <v>0.9994609999999999</v>
+        <v>1.586583</v>
       </c>
       <c r="I18">
-        <v>0.03362757667131512</v>
+        <v>0.05211631367261799</v>
       </c>
       <c r="J18">
-        <v>0.02267252514003638</v>
+        <v>0.03535845997882436</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -1556,22 +1556,22 @@
         <v>1.055898</v>
       </c>
       <c r="O18">
-        <v>0.001729259476562138</v>
+        <v>0.01117178254830525</v>
       </c>
       <c r="P18">
-        <v>0.002281516659989669</v>
+        <v>0.01229358849433434</v>
       </c>
       <c r="Q18">
-        <v>0.175888145163</v>
+        <v>0.279211636089</v>
       </c>
       <c r="R18">
-        <v>1.055328870978</v>
+        <v>1.675269816534</v>
       </c>
       <c r="S18">
-        <v>5.815080563269156E-05</v>
+        <v>0.0005822321235697559</v>
       </c>
       <c r="T18">
-        <v>5.172774383102759E-05</v>
+        <v>0.0004346823567730564</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.4997305</v>
+        <v>0.7932915</v>
       </c>
       <c r="H19">
-        <v>0.9994609999999999</v>
+        <v>1.586583</v>
       </c>
       <c r="I19">
-        <v>0.03362757667131512</v>
+        <v>0.05211631367261799</v>
       </c>
       <c r="J19">
-        <v>0.02267252514003638</v>
+        <v>0.03535845997882436</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>4.108626</v>
+        <v>2.798424666666667</v>
       </c>
       <c r="N19">
-        <v>12.325878</v>
+        <v>8.395274000000001</v>
       </c>
       <c r="O19">
-        <v>0.02018626925938754</v>
+        <v>0.08882503382091908</v>
       </c>
       <c r="P19">
-        <v>0.02663296644751684</v>
+        <v>0.09774433122629669</v>
       </c>
       <c r="Q19">
-        <v>2.053205725293</v>
+        <v>2.219966501457</v>
       </c>
       <c r="R19">
-        <v>12.319234351758</v>
+        <v>13.319799008742</v>
       </c>
       <c r="S19">
-        <v>0.0006788153172278659</v>
+        <v>0.004629233324591921</v>
       </c>
       <c r="T19">
-        <v>0.0006038366013350709</v>
+        <v>0.003456089023821964</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4997305</v>
+        <v>0.7932915</v>
       </c>
       <c r="H20">
-        <v>0.9994609999999999</v>
+        <v>1.586583</v>
       </c>
       <c r="I20">
-        <v>0.03362757667131512</v>
+        <v>0.05211631367261799</v>
       </c>
       <c r="J20">
-        <v>0.02267252514003638</v>
+        <v>0.03535845997882436</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>147.801735</v>
+        <v>8.624592</v>
       </c>
       <c r="N20">
-        <v>295.60347</v>
+        <v>17.249184</v>
       </c>
       <c r="O20">
-        <v>0.726171138408471</v>
+        <v>0.2737539034788959</v>
       </c>
       <c r="P20">
-        <v>0.6387210142984987</v>
+        <v>0.2008284606648142</v>
       </c>
       <c r="Q20">
-        <v>73.8610349324175</v>
+        <v>6.841815524568</v>
       </c>
       <c r="R20">
-        <v>295.44413972967</v>
+        <v>27.367262098272</v>
       </c>
       <c r="S20">
-        <v>0.02441937563332704</v>
+        <v>0.01426704430280973</v>
       </c>
       <c r="T20">
-        <v>0.01448141825415225</v>
+        <v>0.007100985089025734</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4997305</v>
+        <v>0.7932915</v>
       </c>
       <c r="H21">
-        <v>0.9994609999999999</v>
+        <v>1.586583</v>
       </c>
       <c r="I21">
-        <v>0.03362757667131512</v>
+        <v>0.05211631367261799</v>
       </c>
       <c r="J21">
-        <v>0.02267252514003638</v>
+        <v>0.03535845997882436</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.561199666666667</v>
+        <v>5.358313666666667</v>
       </c>
       <c r="N21">
-        <v>28.683599</v>
+        <v>16.074941</v>
       </c>
       <c r="O21">
-        <v>0.04697554630528544</v>
+        <v>0.1700786868891091</v>
       </c>
       <c r="P21">
-        <v>0.06197768059695444</v>
+        <v>0.1871570073290255</v>
       </c>
       <c r="Q21">
-        <v>4.778023090023167</v>
+        <v>4.2507046861005</v>
       </c>
       <c r="R21">
-        <v>28.668138540139</v>
+        <v>25.504228116603</v>
       </c>
       <c r="S21">
-        <v>0.0015796737850579</v>
+        <v>0.008863874194939791</v>
       </c>
       <c r="T21">
-        <v>0.001405190521455594</v>
+        <v>0.006617583553399885</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.029595</v>
+        <v>0.158087</v>
       </c>
       <c r="H22">
-        <v>0.088785</v>
+        <v>0.474261</v>
       </c>
       <c r="I22">
-        <v>0.001991489676110565</v>
+        <v>0.0103857304402772</v>
       </c>
       <c r="J22">
-        <v>0.002014065725984436</v>
+        <v>0.0105693421573389</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>41.71215133333333</v>
+        <v>14.37161333333333</v>
       </c>
       <c r="N22">
-        <v>125.136454</v>
+        <v>43.11484</v>
       </c>
       <c r="O22">
-        <v>0.2049377865502938</v>
+        <v>0.4561705932627708</v>
       </c>
       <c r="P22">
-        <v>0.2703868219970402</v>
+        <v>0.5019766122855294</v>
       </c>
       <c r="Q22">
-        <v>1.23447111871</v>
+        <v>2.271965237026667</v>
       </c>
       <c r="R22">
-        <v>11.11024006839</v>
+        <v>20.44768713324</v>
       </c>
       <c r="S22">
-        <v>0.0004081314861598608</v>
+        <v>0.004737664816408468</v>
       </c>
       <c r="T22">
-        <v>0.0005445768309420932</v>
+        <v>0.005305562570227609</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.029595</v>
+        <v>0.158087</v>
       </c>
       <c r="H23">
-        <v>0.088785</v>
+        <v>0.474261</v>
       </c>
       <c r="I23">
-        <v>0.001991489676110565</v>
+        <v>0.0103857304402772</v>
       </c>
       <c r="J23">
-        <v>0.002014065725984436</v>
+        <v>0.0105693421573389</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1866,22 +1866,22 @@
         <v>1.055898</v>
       </c>
       <c r="O23">
-        <v>0.001729259476562138</v>
+        <v>0.01117178254830525</v>
       </c>
       <c r="P23">
-        <v>0.002281516659989669</v>
+        <v>0.01229358849433434</v>
       </c>
       <c r="Q23">
-        <v>0.01041643377</v>
+        <v>0.055641249042</v>
       </c>
       <c r="R23">
-        <v>0.09374790393</v>
+        <v>0.500771241378</v>
       </c>
       <c r="S23">
-        <v>3.443802394889859E-06</v>
+        <v>0.0001160271220840914</v>
       </c>
       <c r="T23">
-        <v>4.595124508147677E-06</v>
+        <v>0.0001299351431381443</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.029595</v>
+        <v>0.158087</v>
       </c>
       <c r="H24">
-        <v>0.088785</v>
+        <v>0.474261</v>
       </c>
       <c r="I24">
-        <v>0.001991489676110565</v>
+        <v>0.0103857304402772</v>
       </c>
       <c r="J24">
-        <v>0.002014065725984436</v>
+        <v>0.0105693421573389</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>4.108626</v>
+        <v>2.798424666666667</v>
       </c>
       <c r="N24">
-        <v>12.325878</v>
+        <v>8.395274000000001</v>
       </c>
       <c r="O24">
-        <v>0.02018626925938754</v>
+        <v>0.08882503382091908</v>
       </c>
       <c r="P24">
-        <v>0.02663296644751684</v>
+        <v>0.09774433122629669</v>
       </c>
       <c r="Q24">
-        <v>0.12159478647</v>
+        <v>0.4423945602793334</v>
       </c>
       <c r="R24">
-        <v>1.09435307823</v>
+        <v>3.981551042514</v>
       </c>
       <c r="S24">
-        <v>4.020074682925835E-05</v>
+        <v>0.000922512857612571</v>
       </c>
       <c r="T24">
-        <v>5.364054490323712E-05</v>
+        <v>0.001033093280670995</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.029595</v>
+        <v>0.158087</v>
       </c>
       <c r="H25">
-        <v>0.088785</v>
+        <v>0.474261</v>
       </c>
       <c r="I25">
-        <v>0.001991489676110565</v>
+        <v>0.0103857304402772</v>
       </c>
       <c r="J25">
-        <v>0.002014065725984436</v>
+        <v>0.0105693421573389</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>147.801735</v>
+        <v>8.624592</v>
       </c>
       <c r="N25">
-        <v>295.60347</v>
+        <v>17.249184</v>
       </c>
       <c r="O25">
-        <v>0.726171138408471</v>
+        <v>0.2737539034788959</v>
       </c>
       <c r="P25">
-        <v>0.6387210142984987</v>
+        <v>0.2008284606648142</v>
       </c>
       <c r="Q25">
-        <v>4.374192347325001</v>
+        <v>1.363435875504</v>
       </c>
       <c r="R25">
-        <v>26.24515408395</v>
+        <v>8.180615253024</v>
       </c>
       <c r="S25">
-        <v>0.001446162325229927</v>
+        <v>0.002843134248505476</v>
       </c>
       <c r="T25">
-        <v>0.001286426103364621</v>
+        <v>0.002122624715698097</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.029595</v>
+        <v>0.158087</v>
       </c>
       <c r="H26">
-        <v>0.088785</v>
+        <v>0.474261</v>
       </c>
       <c r="I26">
-        <v>0.001991489676110565</v>
+        <v>0.0103857304402772</v>
       </c>
       <c r="J26">
-        <v>0.002014065725984436</v>
+        <v>0.0105693421573389</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.561199666666667</v>
+        <v>5.358313666666667</v>
       </c>
       <c r="N26">
-        <v>28.683599</v>
+        <v>16.074941</v>
       </c>
       <c r="O26">
-        <v>0.04697554630528544</v>
+        <v>0.1700786868891091</v>
       </c>
       <c r="P26">
-        <v>0.06197768059695444</v>
+        <v>0.1871570073290255</v>
       </c>
       <c r="Q26">
-        <v>0.282963704135</v>
+        <v>0.8470797326223334</v>
       </c>
       <c r="R26">
-        <v>2.546673337215</v>
+        <v>7.623717593601</v>
       </c>
       <c r="S26">
-        <v>9.355131549662976E-05</v>
+        <v>0.001766391395666595</v>
       </c>
       <c r="T26">
-        <v>0.0001248271222663365</v>
+        <v>0.001978126447604054</v>
       </c>
     </row>
   </sheetData>
